--- a/Lesson3/hometask/price_proposals.xlsx
+++ b/Lesson3/hometask/price_proposals.xlsx
@@ -117,10 +117,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>303086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>113500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608914</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -138,45 +138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1219200" y="190500"/>
-          <a:ext cx="13714286" cy="6400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>303086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>113500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Monty_wbp.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="190500"/>
-          <a:ext cx="13714286" cy="6400000"/>
+          <a:ext cx="5485714" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -198,10 +160,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>303086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>113500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608914</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -219,45 +181,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1219200" y="190500"/>
-          <a:ext cx="13714286" cy="6400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>303086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>113500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Triangle_wbp.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="190500"/>
-          <a:ext cx="13714286" cy="6400000"/>
+          <a:ext cx="5485714" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -279,10 +203,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>303086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>113500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608914</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -300,45 +224,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1219200" y="190500"/>
-          <a:ext cx="13714286" cy="6400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>303086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>113500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Stone_wbp.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="190500"/>
-          <a:ext cx="13714286" cy="6400000"/>
+          <a:ext cx="5485714" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -360,10 +246,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>303086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>113500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>608914</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -381,45 +267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1219200" y="190500"/>
-          <a:ext cx="13714286" cy="6400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>303086</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>113500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Poly_wbp.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="190500"/>
-          <a:ext cx="13714286" cy="6400000"/>
+          <a:ext cx="5485714" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,7 +593,7 @@
         <v>43708</v>
       </c>
       <c r="B4">
-        <v>1132.11489579647</v>
+        <v>1102.11489579647</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -753,7 +601,7 @@
         <v>43738</v>
       </c>
       <c r="B5">
-        <v>1147.800361511065</v>
+        <v>1117.800361511065</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -761,7 +609,7 @@
         <v>43769</v>
       </c>
       <c r="B6">
-        <v>1136.390992029215</v>
+        <v>1106.390992029215</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -769,7 +617,7 @@
         <v>43799</v>
       </c>
       <c r="B7">
-        <v>1147.701623421985</v>
+        <v>1117.701623421985</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -777,7 +625,7 @@
         <v>43830</v>
       </c>
       <c r="B8">
-        <v>1157.821985573361</v>
+        <v>1127.821985573361</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -785,7 +633,7 @@
         <v>43861</v>
       </c>
       <c r="B9">
-        <v>1171.701139666654</v>
+        <v>1141.701139666654</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -793,7 +641,7 @@
         <v>43890</v>
       </c>
       <c r="B10">
-        <v>1146.249060856182</v>
+        <v>1116.249060856182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -801,7 +649,7 @@
         <v>43921</v>
       </c>
       <c r="B11">
-        <v>1019.83223152545</v>
+        <v>989.8322315254495</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -809,7 +657,7 @@
         <v>43951</v>
       </c>
       <c r="B12">
-        <v>845.0253279101867</v>
+        <v>815.0253279101867</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -817,7 +665,7 @@
         <v>43982</v>
       </c>
       <c r="B13">
-        <v>748.3034710075418</v>
+        <v>718.3034710075418</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -825,7 +673,7 @@
         <v>44012</v>
       </c>
       <c r="B14">
-        <v>779.7042319904732</v>
+        <v>749.7042319904732</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -833,7 +681,7 @@
         <v>44043</v>
       </c>
       <c r="B15">
-        <v>876.8286196872981</v>
+        <v>846.8286196872981</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -841,7 +689,7 @@
         <v>44074</v>
       </c>
       <c r="B16">
-        <v>923.2257202781777</v>
+        <v>893.2257202781777</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -849,7 +697,7 @@
         <v>44104</v>
       </c>
       <c r="B17">
-        <v>921.0846958566525</v>
+        <v>891.0846958566525</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -857,7 +705,7 @@
         <v>44135</v>
       </c>
       <c r="B18">
-        <v>911.5723717344492</v>
+        <v>881.5723717344492</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -865,7 +713,7 @@
         <v>44165</v>
       </c>
       <c r="B19">
-        <v>907.3183855605388</v>
+        <v>877.3183855605388</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -873,7 +721,7 @@
         <v>44196</v>
       </c>
       <c r="B20">
-        <v>931.8399774566949</v>
+        <v>901.8399774566949</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -881,7 +729,7 @@
         <v>44227</v>
       </c>
       <c r="B21">
-        <v>975.8915323876872</v>
+        <v>945.8915323876872</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -889,7 +737,7 @@
         <v>44255</v>
       </c>
       <c r="B22">
-        <v>1042.433577679365</v>
+        <v>1012.433577679365</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -897,7 +745,7 @@
         <v>44286</v>
       </c>
       <c r="B23">
-        <v>1107.890660934738</v>
+        <v>1077.890660934738</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -905,7 +753,7 @@
         <v>44316</v>
       </c>
       <c r="B24">
-        <v>1150.175037733683</v>
+        <v>1120.175037733683</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -913,7 +761,7 @@
         <v>44347</v>
       </c>
       <c r="B25">
-        <v>1173.480624669436</v>
+        <v>1143.480624669436</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -921,7 +769,7 @@
         <v>44377</v>
       </c>
       <c r="B26">
-        <v>1206.266842434902</v>
+        <v>1176.266842434902</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -929,7 +777,7 @@
         <v>44408</v>
       </c>
       <c r="B27">
-        <v>1252.629195314893</v>
+        <v>1222.629195314893</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -937,7 +785,7 @@
         <v>44439</v>
       </c>
       <c r="B28">
-        <v>1271.128972271476</v>
+        <v>1241.128972271476</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -945,7 +793,7 @@
         <v>44469</v>
       </c>
       <c r="B29">
-        <v>1278.705478104865</v>
+        <v>1248.705478104865</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -953,7 +801,7 @@
         <v>44500</v>
       </c>
       <c r="B30">
-        <v>1320.770372619899</v>
+        <v>1290.770372619899</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -961,7 +809,7 @@
         <v>44530</v>
       </c>
       <c r="B31">
-        <v>1375.206616039025</v>
+        <v>1345.206616039025</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -969,7 +817,7 @@
         <v>44561</v>
       </c>
       <c r="B32">
-        <v>1387.959707576714</v>
+        <v>1357.959707576714</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -977,7 +825,7 @@
         <v>44592</v>
       </c>
       <c r="B33">
-        <v>1403.559575890164</v>
+        <v>1373.559575890164</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -985,7 +833,7 @@
         <v>44620</v>
       </c>
       <c r="B34">
-        <v>1460.855349598581</v>
+        <v>1430.855349598581</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -993,7 +841,7 @@
         <v>44651</v>
       </c>
       <c r="B35">
-        <v>1627.9080359318</v>
+        <v>1597.9080359318</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1001,7 +849,7 @@
         <v>44681</v>
       </c>
       <c r="B36">
-        <v>1726.822377040861</v>
+        <v>1696.822377040861</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1009,7 +857,7 @@
         <v>44712</v>
       </c>
       <c r="B37">
-        <v>1834.9864930192</v>
+        <v>1804.9864930192</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1017,7 +865,7 @@
         <v>44742</v>
       </c>
       <c r="B38">
-        <v>1881.666731551481</v>
+        <v>1851.666731551481</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +895,7 @@
         <v>43646</v>
       </c>
       <c r="B2">
-        <v>1572.335741270065</v>
+        <v>1442.335741270065</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1055,7 +903,7 @@
         <v>43677</v>
       </c>
       <c r="B3">
-        <v>1614.816336014789</v>
+        <v>1484.816336014789</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1063,7 +911,7 @@
         <v>43708</v>
       </c>
       <c r="B4">
-        <v>1568.243028039932</v>
+        <v>1438.243028039932</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1071,7 +919,7 @@
         <v>43738</v>
       </c>
       <c r="B5">
-        <v>1597.202564977918</v>
+        <v>1467.202564977918</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1079,7 +927,7 @@
         <v>43769</v>
       </c>
       <c r="B6">
-        <v>1551.665907052911</v>
+        <v>1421.665907052911</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1087,7 +935,7 @@
         <v>43799</v>
       </c>
       <c r="B7">
-        <v>1600.455190510341</v>
+        <v>1470.455190510341</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1095,7 +943,7 @@
         <v>43830</v>
       </c>
       <c r="B8">
-        <v>1645.945659044811</v>
+        <v>1515.945659044811</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1103,7 +951,7 @@
         <v>43861</v>
       </c>
       <c r="B9">
-        <v>1609.979967565359</v>
+        <v>1479.979967565359</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1111,7 +959,7 @@
         <v>43890</v>
       </c>
       <c r="B10">
-        <v>1491.358850142579</v>
+        <v>1361.358850142579</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1119,7 +967,7 @@
         <v>43921</v>
       </c>
       <c r="B11">
-        <v>1179.450214643478</v>
+        <v>1049.450214643478</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1127,7 +975,7 @@
         <v>43951</v>
       </c>
       <c r="B12">
-        <v>953.8926182324545</v>
+        <v>823.8926182324545</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1135,7 +983,7 @@
         <v>43982</v>
       </c>
       <c r="B13">
-        <v>1142.213169095721</v>
+        <v>1012.213169095721</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1143,7 +991,7 @@
         <v>44012</v>
       </c>
       <c r="B14">
-        <v>1311.346322374344</v>
+        <v>1181.346322374344</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1151,7 +999,7 @@
         <v>44043</v>
       </c>
       <c r="B15">
-        <v>1358.040302333832</v>
+        <v>1228.040302333832</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1159,7 +1007,7 @@
         <v>44074</v>
       </c>
       <c r="B16">
-        <v>1398.501184956687</v>
+        <v>1268.501184956687</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1167,7 +1015,7 @@
         <v>44104</v>
       </c>
       <c r="B17">
-        <v>1353.516812799999</v>
+        <v>1223.516812799999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1175,7 +1023,7 @@
         <v>44135</v>
       </c>
       <c r="B18">
-        <v>1351.326849212646</v>
+        <v>1221.326849212646</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1183,7 +1031,7 @@
         <v>44165</v>
       </c>
       <c r="B19">
-        <v>1382.077381084987</v>
+        <v>1252.077381084987</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1191,7 +1039,7 @@
         <v>44196</v>
       </c>
       <c r="B20">
-        <v>1485.894778915074</v>
+        <v>1355.894778915074</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1199,7 +1047,7 @@
         <v>44227</v>
       </c>
       <c r="B21">
-        <v>1566.240374753421</v>
+        <v>1436.240374753421</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1207,7 +1055,7 @@
         <v>44255</v>
       </c>
       <c r="B22">
-        <v>1673.346632368188</v>
+        <v>1543.346632368188</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1215,7 +1063,7 @@
         <v>44286</v>
       </c>
       <c r="B23">
-        <v>1718.264810710575</v>
+        <v>1588.264810710575</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1223,7 +1071,7 @@
         <v>44316</v>
       </c>
       <c r="B24">
-        <v>1709.688388126918</v>
+        <v>1579.688388126918</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1231,7 +1079,7 @@
         <v>44347</v>
       </c>
       <c r="B25">
-        <v>1771.540696982793</v>
+        <v>1641.540696982793</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1239,7 +1087,7 @@
         <v>44377</v>
       </c>
       <c r="B26">
-        <v>1866.486934013367</v>
+        <v>1736.486934013367</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1247,7 +1095,7 @@
         <v>44408</v>
       </c>
       <c r="B27">
-        <v>1874.265785740444</v>
+        <v>1744.265785740444</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1255,7 +1103,7 @@
         <v>44439</v>
       </c>
       <c r="B28">
-        <v>1797.375746593475</v>
+        <v>1667.375746593475</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1263,7 +1111,7 @@
         <v>44469</v>
       </c>
       <c r="B29">
-        <v>1858.371429476057</v>
+        <v>1728.371429476057</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1271,7 +1119,7 @@
         <v>44500</v>
       </c>
       <c r="B30">
-        <v>2004.655051571982</v>
+        <v>1874.655051571982</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1279,7 +1127,7 @@
         <v>44530</v>
       </c>
       <c r="B31">
-        <v>1956.251939029694</v>
+        <v>1826.251939029694</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1287,7 +1135,7 @@
         <v>44561</v>
       </c>
       <c r="B32">
-        <v>1842.034352999978</v>
+        <v>1712.034352999978</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1295,7 +1143,7 @@
         <v>44592</v>
       </c>
       <c r="B33">
-        <v>2021.586569559915</v>
+        <v>1891.586569559915</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1303,7 +1151,7 @@
         <v>44620</v>
       </c>
       <c r="B34">
-        <v>2159.164731952517</v>
+        <v>2029.164731952517</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1311,7 +1159,7 @@
         <v>44651</v>
       </c>
       <c r="B35">
-        <v>2410.128183354087</v>
+        <v>2280.128183354087</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1319,7 +1167,7 @@
         <v>44681</v>
       </c>
       <c r="B36">
-        <v>2297.452334770748</v>
+        <v>2167.452334770748</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1327,7 +1175,7 @@
         <v>44712</v>
       </c>
       <c r="B37">
-        <v>2408.070513407843</v>
+        <v>2278.070513407843</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1335,7 +1183,7 @@
         <v>44742</v>
       </c>
       <c r="B38">
-        <v>2485.73794585228</v>
+        <v>2355.73794585228</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1223,7 @@
         <v>43708</v>
       </c>
       <c r="B4">
-        <v>1193.343501118496</v>
+        <v>1163.343501118496</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1383,7 +1231,7 @@
         <v>43738</v>
       </c>
       <c r="B5">
-        <v>1209.900381595013</v>
+        <v>1179.900381595013</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1391,7 +1239,7 @@
         <v>43769</v>
       </c>
       <c r="B6">
-        <v>1197.85715825306</v>
+        <v>1167.85715825306</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1399,7 +1247,7 @@
         <v>43799</v>
       </c>
       <c r="B7">
-        <v>1209.796158056539</v>
+        <v>1179.796158056539</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1407,7 +1255,7 @@
         <v>43830</v>
       </c>
       <c r="B8">
-        <v>1220.478762549659</v>
+        <v>1190.478762549659</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1415,7 +1263,7 @@
         <v>43861</v>
       </c>
       <c r="B9">
-        <v>1235.128980759246</v>
+        <v>1205.128980759246</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1423,7 +1271,7 @@
         <v>43890</v>
       </c>
       <c r="B10">
-        <v>1208.262897570414</v>
+        <v>1178.262897570414</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1431,7 +1279,7 @@
         <v>43921</v>
       </c>
       <c r="B11">
-        <v>1074.822911054641</v>
+        <v>1044.822911054641</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1439,7 +1287,7 @@
         <v>43951</v>
       </c>
       <c r="B12">
-        <v>890.3045127940858</v>
+        <v>860.3045127940858</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1447,7 +1295,7 @@
         <v>43982</v>
       </c>
       <c r="B13">
-        <v>788.2092193968497</v>
+        <v>758.2092193968497</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1455,7 +1303,7 @@
         <v>44012</v>
       </c>
       <c r="B14">
-        <v>821.354467101055</v>
+        <v>791.354467101055</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1463,7 +1311,7 @@
         <v>44043</v>
       </c>
       <c r="B15">
-        <v>923.8746541143702</v>
+        <v>893.8746541143702</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1471,7 +1319,7 @@
         <v>44074</v>
       </c>
       <c r="B16">
-        <v>972.8493714047431</v>
+        <v>942.8493714047431</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1479,7 +1327,7 @@
         <v>44104</v>
       </c>
       <c r="B17">
-        <v>970.589401182022</v>
+        <v>940.589401182022</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1487,7 +1335,7 @@
         <v>44135</v>
       </c>
       <c r="B18">
-        <v>960.5486146085852</v>
+        <v>930.5486146085852</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1495,7 +1343,7 @@
         <v>44165</v>
       </c>
       <c r="B19">
-        <v>956.0582958694575</v>
+        <v>926.0582958694575</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1503,7 +1351,7 @@
         <v>44196</v>
       </c>
       <c r="B20">
-        <v>981.9421984265111</v>
+        <v>951.9421984265111</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1511,7 +1359,7 @@
         <v>44227</v>
       </c>
       <c r="B21">
-        <v>1028.441061964781</v>
+        <v>998.4410619647808</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1519,7 +1367,7 @@
         <v>44255</v>
       </c>
       <c r="B22">
-        <v>1098.67988755044</v>
+        <v>1068.67988755044</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1527,7 +1375,7 @@
         <v>44286</v>
       </c>
       <c r="B23">
-        <v>1167.773475431112</v>
+        <v>1137.773475431112</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1535,7 +1383,7 @@
         <v>44316</v>
       </c>
       <c r="B24">
-        <v>1212.406984274443</v>
+        <v>1182.406984274443</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1543,7 +1391,7 @@
         <v>44347</v>
       </c>
       <c r="B25">
-        <v>1237.00732603996</v>
+        <v>1207.00732603996</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1551,7 +1399,7 @@
         <v>44377</v>
       </c>
       <c r="B26">
-        <v>1271.615000347952</v>
+        <v>1241.615000347952</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1559,7 +1407,7 @@
         <v>44408</v>
       </c>
       <c r="B27">
-        <v>1320.553039499054</v>
+        <v>1290.553039499054</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1567,7 +1415,7 @@
         <v>44439</v>
       </c>
       <c r="B28">
-        <v>1340.080581842113</v>
+        <v>1310.080581842113</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1575,7 +1423,7 @@
         <v>44469</v>
       </c>
       <c r="B29">
-        <v>1348.078004666246</v>
+        <v>1318.078004666246</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1583,7 +1431,7 @@
         <v>44500</v>
       </c>
       <c r="B30">
-        <v>1392.479837765449</v>
+        <v>1362.479837765449</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1591,7 +1439,7 @@
         <v>44530</v>
       </c>
       <c r="B31">
-        <v>1449.940316930082</v>
+        <v>1419.940316930082</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1599,7 +1447,7 @@
         <v>44561</v>
       </c>
       <c r="B32">
-        <v>1463.401913553198</v>
+        <v>1433.401913553198</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1607,7 +1455,7 @@
         <v>44592</v>
       </c>
       <c r="B33">
-        <v>1479.868441217395</v>
+        <v>1449.868441217395</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1615,7 +1463,7 @@
         <v>44620</v>
       </c>
       <c r="B34">
-        <v>1540.347313465168</v>
+        <v>1510.347313465168</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1623,7 +1471,7 @@
         <v>44651</v>
       </c>
       <c r="B35">
-        <v>1716.680704594678</v>
+        <v>1686.680704594678</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1631,7 +1479,7 @@
         <v>44681</v>
       </c>
       <c r="B36">
-        <v>1821.090286876464</v>
+        <v>1791.090286876464</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1639,7 +1487,7 @@
         <v>44712</v>
       </c>
       <c r="B37">
-        <v>1935.263520409156</v>
+        <v>1905.263520409156</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1647,7 +1495,7 @@
         <v>44742</v>
       </c>
       <c r="B38">
-        <v>1984.537105526563</v>
+        <v>1954.537105526563</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1525,7 @@
         <v>43646</v>
       </c>
       <c r="B2">
-        <v>1223.237163051702</v>
+        <v>1193.237163051702</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1685,7 +1533,7 @@
         <v>43677</v>
       </c>
       <c r="B3">
-        <v>1267.625984558627</v>
+        <v>1237.625984558627</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1693,7 +1541,7 @@
         <v>43708</v>
       </c>
       <c r="B4">
-        <v>1236.116008518023</v>
+        <v>1206.116008518023</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1701,7 +1549,7 @@
         <v>43738</v>
       </c>
       <c r="B5">
-        <v>1274.999199909865</v>
+        <v>1244.999199909865</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1709,7 +1557,7 @@
         <v>43769</v>
       </c>
       <c r="B6">
-        <v>1229.975065268521</v>
+        <v>1199.975065268521</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1717,7 +1565,7 @@
         <v>43799</v>
       </c>
       <c r="B7">
-        <v>1273.441092114163</v>
+        <v>1243.441092114163</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1725,7 +1573,7 @@
         <v>43830</v>
       </c>
       <c r="B8">
-        <v>1308.396395009408</v>
+        <v>1278.396395009408</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1733,7 +1581,7 @@
         <v>43861</v>
       </c>
       <c r="B9">
-        <v>1275.776273776388</v>
+        <v>1245.776273776388</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1741,7 +1589,7 @@
         <v>43890</v>
       </c>
       <c r="B10">
-        <v>1189.449232039603</v>
+        <v>1159.449232039603</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1749,7 +1597,7 @@
         <v>43921</v>
       </c>
       <c r="B11">
-        <v>891.2208582179919</v>
+        <v>861.2208582179919</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1757,7 +1605,7 @@
         <v>43951</v>
       </c>
       <c r="B12">
-        <v>698.9134918460203</v>
+        <v>668.9134918460203</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1765,7 +1613,7 @@
         <v>43982</v>
       </c>
       <c r="B13">
-        <v>870.2671042608755</v>
+        <v>840.2671042608755</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1773,7 +1621,7 @@
         <v>44012</v>
       </c>
       <c r="B14">
-        <v>994.8433694616659</v>
+        <v>964.8433694616659</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1781,7 +1629,7 @@
         <v>44043</v>
       </c>
       <c r="B15">
-        <v>1019.423971245543</v>
+        <v>989.4239712455426</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1789,7 +1637,7 @@
         <v>44074</v>
       </c>
       <c r="B16">
-        <v>1023.377536210778</v>
+        <v>993.3775362107782</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1797,7 +1645,7 @@
         <v>44104</v>
       </c>
       <c r="B17">
-        <v>987.7779888706325</v>
+        <v>957.7779888706325</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1805,7 +1653,7 @@
         <v>44135</v>
       </c>
       <c r="B18">
-        <v>988.0333016422716</v>
+        <v>958.0333016422716</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1813,7 +1661,7 @@
         <v>44165</v>
       </c>
       <c r="B19">
-        <v>1009.339381836874</v>
+        <v>979.3393818368737</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1821,7 +1669,7 @@
         <v>44196</v>
       </c>
       <c r="B20">
-        <v>1068.699242127947</v>
+        <v>1038.699242127947</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1829,7 +1677,7 @@
         <v>44227</v>
       </c>
       <c r="B21">
-        <v>1133.403432914546</v>
+        <v>1103.403432914546</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1837,7 +1685,7 @@
         <v>44255</v>
       </c>
       <c r="B22">
-        <v>1228.928131299409</v>
+        <v>1198.928131299409</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1845,7 +1693,7 @@
         <v>44286</v>
       </c>
       <c r="B23">
-        <v>1284.707616870679</v>
+        <v>1254.707616870679</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1853,7 +1701,7 @@
         <v>44316</v>
       </c>
       <c r="B24">
-        <v>1272.941876351065</v>
+        <v>1242.941876351065</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1861,7 +1709,7 @@
         <v>44347</v>
       </c>
       <c r="B25">
-        <v>1305.836568187394</v>
+        <v>1275.836568187394</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1869,7 +1717,7 @@
         <v>44377</v>
       </c>
       <c r="B26">
-        <v>1392.902135496718</v>
+        <v>1362.902135496718</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1877,7 +1725,7 @@
         <v>44408</v>
       </c>
       <c r="B27">
-        <v>1425.937640855035</v>
+        <v>1395.937640855035</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1885,7 +1733,7 @@
         <v>44439</v>
       </c>
       <c r="B28">
-        <v>1366.885832144117</v>
+        <v>1336.885832144117</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1893,7 +1741,7 @@
         <v>44469</v>
       </c>
       <c r="B29">
-        <v>1417.904604746902</v>
+        <v>1387.904604746902</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1901,7 +1749,7 @@
         <v>44500</v>
       </c>
       <c r="B30">
-        <v>1564.751792754649</v>
+        <v>1534.751792754649</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1909,7 +1757,7 @@
         <v>44530</v>
       </c>
       <c r="B31">
-        <v>1546.525435427232</v>
+        <v>1516.525435427232</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1917,7 +1765,7 @@
         <v>44561</v>
       </c>
       <c r="B32">
-        <v>1459.989806821277</v>
+        <v>1429.989806821277</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1925,7 +1773,7 @@
         <v>44592</v>
       </c>
       <c r="B33">
-        <v>1616.231358189031</v>
+        <v>1586.231358189031</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1933,7 +1781,7 @@
         <v>44620</v>
       </c>
       <c r="B34">
-        <v>1735.601488665008</v>
+        <v>1705.601488665008</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1941,7 +1789,7 @@
         <v>44651</v>
       </c>
       <c r="B35">
-        <v>2011.2636717209</v>
+        <v>1981.2636717209</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1949,7 +1797,7 @@
         <v>44681</v>
       </c>
       <c r="B36">
-        <v>1942.648683848931</v>
+        <v>1912.648683848931</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1957,7 +1805,7 @@
         <v>44712</v>
       </c>
       <c r="B37">
-        <v>2092.543071393529</v>
+        <v>2062.543071393529</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1965,7 +1813,7 @@
         <v>44742</v>
       </c>
       <c r="B38">
-        <v>2165.308458877429</v>
+        <v>2135.308458877429</v>
       </c>
     </row>
   </sheetData>
